--- a/raw_inputs/subsidies.xlsx
+++ b/raw_inputs/subsidies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Forschung\EBC0324_BMWi_BF2016_tos\Students\tos-sre\03_Optimierungsprogramm\raw_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Subsidy-Optimization\raw_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="hp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
   <si>
     <t xml:space="preserve">HP_Air </t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>No support for large systems; Market price instead</t>
+  </si>
+  <si>
+    <t>sub_step_1</t>
+  </si>
+  <si>
+    <t>sub_step_2</t>
+  </si>
+  <si>
+    <t>sub_step_3</t>
+  </si>
+  <si>
+    <t>sub_step_4</t>
+  </si>
+  <si>
+    <t>sub_basic max</t>
+  </si>
+  <si>
+    <t>share_elec_eff</t>
+  </si>
+  <si>
+    <t>share_therm_eff</t>
   </si>
 </sst>
 </file>
@@ -547,6 +568,97 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425024</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656346</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Förderung von Mini-KWK-Anlagen - Klimaschutz durch Effizienz - Adobe Acrobat Pro DC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="49728" t="28540" r="28360" b="37915"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15665024" y="148877"/>
+          <a:ext cx="4041322" cy="3374573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2" descr="Förderung von Mini-KWK-Anlagen - Klimaschutz durch Effizienz - Adobe Acrobat Pro DC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="50430" t="36759" r="28243" b="46532"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15744264" y="3563471"/>
+          <a:ext cx="3933265" cy="1680884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -591,7 +703,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -639,7 +751,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -687,7 +799,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1562,15 +1674,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1">
+        <v>1900</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>3500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1578,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1837,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1909,7 @@
         <v>10000</v>
       </c>
       <c r="B5">
-        <f>0.03284+0.005</f>
-        <v>3.7839999999999999E-2</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>

--- a/raw_inputs/subsidies.xlsx
+++ b/raw_inputs/subsidies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Subsidy-Optimization\raw_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10_Git\Subsidy-Optimization\raw_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="hp" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,6 +402,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -707,54 +708,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1" descr="Erneuerbare-Energien-Gesetz (EEG): Photovoltaik | FÖRDER.navi - Mozilla Firefox"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="35726" t="33134" r="24126" b="39092"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="1047750"/>
-          <a:ext cx="6486525" cy="2714625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -799,7 +752,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1116,14 +1069,14 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1134,12 +1087,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1133,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1221,12 +1174,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1220,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1308,12 +1261,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1335,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1361,14 +1314,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1401,7 +1354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1412,7 +1365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1434,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1445,7 +1398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1456,7 +1409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1478,12 +1431,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1494,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1519,14 +1472,14 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1570,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1592,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1603,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1614,7 +1567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1625,7 +1578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1636,12 +1589,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1652,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
@@ -1676,16 +1629,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -1696,7 +1649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1707,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1718,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1729,7 +1682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1740,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1748,7 +1701,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -1770,14 +1723,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1797,7 +1750,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1817,7 +1770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.1</v>
       </c>
@@ -1834,21 +1787,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1861,13 +1814,19 @@
       <c r="D1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="7">
+        <v>43466</v>
+      </c>
+      <c r="I1" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.126</v>
+        <v>0.10979999999999999</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -1875,13 +1834,19 @@
       <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0.1147</v>
+      </c>
+      <c r="I2">
+        <v>0.10979999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.1227</v>
+        <v>0.1067</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1889,13 +1854,19 @@
       <c r="D3" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.1115</v>
+      </c>
+      <c r="I3">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>750</v>
       </c>
       <c r="B4">
-        <v>0.1101</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -1903,13 +1874,19 @@
       <c r="D4" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="I4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10000</v>
       </c>
       <c r="B5">
-        <v>8.8400000000000006E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
@@ -1917,8 +1894,14 @@
       <c r="D5" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="I5">
+        <v>7.5800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -1926,7 +1909,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1938,14 +1920,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +1938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1967,7 +1949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1978,7 +1960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1989,7 +1971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2000,7 +1982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2011,7 +1993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -2022,7 +2004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2044,7 +2026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2055,7 +2037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2066,7 +2048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2077,7 +2059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2088,7 +2070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2110,7 +2092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -2121,7 +2103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -2132,7 +2114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2157,15 +2139,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2182,7 +2164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2199,7 +2181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2198,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2233,7 +2215,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2250,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2267,7 +2249,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2266,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2292,7 +2274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2300,7 +2282,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2290,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2316,7 +2298,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
